--- a/po_analysis_by_asin/B071DY2VJR_po_data.xlsx
+++ b/po_analysis_by_asin/B071DY2VJR_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,54 +482,6 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45088.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B7" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B8" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B9" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -541,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,22 +529,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B4" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>280</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B071DY2VJR_po_data.xlsx
+++ b/po_analysis_by_asin/B071DY2VJR_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -509,7 +510,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -527,6 +528,215 @@
       </c>
       <c r="B3" t="n">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>151</v>
+      </c>
+      <c r="C2" t="n">
+        <v>85.87733251249436</v>
+      </c>
+      <c r="D2" t="n">
+        <v>211.2870138597669</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>37.56765679643895</v>
+      </c>
+      <c r="D3" t="n">
+        <v>159.3481385802377</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>48</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-15.89956262298243</v>
+      </c>
+      <c r="D4" t="n">
+        <v>112.4856180525011</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-39.63048104324997</v>
+      </c>
+      <c r="D5" t="n">
+        <v>86.74915544859414</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-68.89068895194825</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.79850961480623</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-89.52397768419854</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.0245509798093</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-120.2806341749897</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.859989729836815</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-141.8798816626605</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-14.03276839020511</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-173.3136389289872</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-43.72948313026825</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-196.3814603900915</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-68.63839941727625</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-219.4486659006959</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-93.15976452261846</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-251.6858348271946</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-120.6179434138514</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B071DY2VJR_po_data.xlsx
+++ b/po_analysis_by_asin/B071DY2VJR_po_data.xlsx
@@ -541,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,16 +560,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -578,12 +568,6 @@
       <c r="B2" t="n">
         <v>151</v>
       </c>
-      <c r="C2" t="n">
-        <v>85.87733251249436</v>
-      </c>
-      <c r="D2" t="n">
-        <v>211.2870138597669</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -592,12 +576,6 @@
       <c r="B3" t="n">
         <v>99</v>
       </c>
-      <c r="C3" t="n">
-        <v>37.56765679643895</v>
-      </c>
-      <c r="D3" t="n">
-        <v>159.3481385802377</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -606,12 +584,6 @@
       <c r="B4" t="n">
         <v>48</v>
       </c>
-      <c r="C4" t="n">
-        <v>-15.89956262298243</v>
-      </c>
-      <c r="D4" t="n">
-        <v>112.4856180525011</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -620,12 +592,6 @@
       <c r="B5" t="n">
         <v>22</v>
       </c>
-      <c r="C5" t="n">
-        <v>-39.63048104324997</v>
-      </c>
-      <c r="D5" t="n">
-        <v>86.74915544859414</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -634,12 +600,6 @@
       <c r="B6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>-68.89068895194825</v>
-      </c>
-      <c r="D6" t="n">
-        <v>59.79850961480623</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -648,12 +608,6 @@
       <c r="B7" t="n">
         <v>0</v>
       </c>
-      <c r="C7" t="n">
-        <v>-89.52397768419854</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38.0245509798093</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -662,12 +616,6 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="C8" t="n">
-        <v>-120.2806341749897</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.859989729836815</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -676,12 +624,6 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" t="n">
-        <v>-141.8798816626605</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-14.03276839020511</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -690,12 +632,6 @@
       <c r="B10" t="n">
         <v>0</v>
       </c>
-      <c r="C10" t="n">
-        <v>-173.3136389289872</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-43.72948313026825</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -704,12 +640,6 @@
       <c r="B11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-196.3814603900915</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-68.63839941727625</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -718,12 +648,6 @@
       <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="C12" t="n">
-        <v>-219.4486659006959</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-93.15976452261846</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -731,12 +655,6 @@
       </c>
       <c r="B13" t="n">
         <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-251.6858348271946</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-120.6179434138514</v>
       </c>
     </row>
   </sheetData>
